--- a/business_data_analysis_with_excel/BusinessDataAnalysis.xlsx
+++ b/business_data_analysis_with_excel/BusinessDataAnalysis.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/easyd/Dropbox/DataScienceDojo/meetup_repo/business_data_analysis_with_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidLanger\Dropbox\DataScienceDojo\meetup_repo\business_data_analysis_with_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="27940" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="218" yWindow="458" windowWidth="27938" windowHeight="15458" tabRatio="720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Can We Celebrate" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Trend Analysis Rules" sheetId="1" r:id="rId5"/>
     <sheet name="Comparing Groups" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -334,12 +334,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -378,7 +381,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -503,45 +505,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>571.0</c:v>
+                  <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>566.0</c:v>
+                  <c:v>566</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>556.0</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>553.0</c:v>
+                  <c:v>553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>561.0</c:v>
+                  <c:v>561</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>569.0</c:v>
+                  <c:v>569</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>573.0</c:v>
+                  <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>570.0</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>567.0</c:v>
+                  <c:v>567</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>562.0</c:v>
+                  <c:v>562</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>559.0</c:v>
+                  <c:v>559</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>556.0</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29CB-4433-9207-F442808184BE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -622,45 +629,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>564.1428571428571</c:v>
+                  <c:v>564.14285714285711</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>564.1428571428571</c:v>
+                  <c:v>564.14285714285711</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>564.1428571428571</c:v>
+                  <c:v>564.14285714285711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>564.1428571428571</c:v>
+                  <c:v>564.14285714285711</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>564.1428571428571</c:v>
+                  <c:v>564.14285714285711</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>564.1428571428571</c:v>
+                  <c:v>564.14285714285711</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>564.1428571428571</c:v>
+                  <c:v>564.14285714285711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>564.1428571428571</c:v>
+                  <c:v>564.14285714285711</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>564.1428571428571</c:v>
+                  <c:v>564.14285714285711</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>564.1428571428571</c:v>
+                  <c:v>564.14285714285711</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>564.1428571428571</c:v>
+                  <c:v>564.14285714285711</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>564.1428571428571</c:v>
+                  <c:v>564.14285714285711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-29CB-4433-9207-F442808184BE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -742,45 +754,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>547.2961904761904</c:v>
+                  <c:v>547.29619047619042</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>547.2961904761904</c:v>
+                  <c:v>547.29619047619042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>547.2961904761904</c:v>
+                  <c:v>547.29619047619042</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>547.2961904761904</c:v>
+                  <c:v>547.29619047619042</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>547.2961904761904</c:v>
+                  <c:v>547.29619047619042</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>547.2961904761904</c:v>
+                  <c:v>547.29619047619042</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>547.2961904761904</c:v>
+                  <c:v>547.29619047619042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>547.2961904761904</c:v>
+                  <c:v>547.29619047619042</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>547.2961904761904</c:v>
+                  <c:v>547.29619047619042</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>547.2961904761904</c:v>
+                  <c:v>547.29619047619042</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>547.2961904761904</c:v>
+                  <c:v>547.29619047619042</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>547.2961904761904</c:v>
+                  <c:v>547.29619047619042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-29CB-4433-9207-F442808184BE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -862,45 +879,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>555.7195238095238</c:v>
+                  <c:v>555.71952380952382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>555.7195238095238</c:v>
+                  <c:v>555.71952380952382</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>555.7195238095238</c:v>
+                  <c:v>555.71952380952382</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>555.7195238095238</c:v>
+                  <c:v>555.71952380952382</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>555.7195238095238</c:v>
+                  <c:v>555.71952380952382</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>555.7195238095238</c:v>
+                  <c:v>555.71952380952382</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>555.7195238095238</c:v>
+                  <c:v>555.71952380952382</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>555.7195238095238</c:v>
+                  <c:v>555.71952380952382</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>555.7195238095238</c:v>
+                  <c:v>555.71952380952382</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>555.7195238095238</c:v>
+                  <c:v>555.71952380952382</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>555.7195238095238</c:v>
+                  <c:v>555.71952380952382</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>555.7195238095238</c:v>
+                  <c:v>555.71952380952382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-29CB-4433-9207-F442808184BE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -982,45 +1004,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>572.5661904761903</c:v>
+                  <c:v>572.5661904761904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>572.5661904761903</c:v>
+                  <c:v>572.5661904761904</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>572.5661904761903</c:v>
+                  <c:v>572.5661904761904</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>572.5661904761903</c:v>
+                  <c:v>572.5661904761904</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>572.5661904761903</c:v>
+                  <c:v>572.5661904761904</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>572.5661904761903</c:v>
+                  <c:v>572.5661904761904</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>572.5661904761903</c:v>
+                  <c:v>572.5661904761904</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>572.5661904761903</c:v>
+                  <c:v>572.5661904761904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>572.5661904761903</c:v>
+                  <c:v>572.5661904761904</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>572.5661904761903</c:v>
+                  <c:v>572.5661904761904</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>572.5661904761903</c:v>
+                  <c:v>572.5661904761904</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>572.5661904761903</c:v>
+                  <c:v>572.5661904761904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-29CB-4433-9207-F442808184BE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1141,6 +1168,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-29CB-4433-9207-F442808184BE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1210,10 +1242,11 @@
         <c:axId val="-361195808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="540.0"/>
+          <c:min val="540"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1258,7 +1291,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1326,7 +1358,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1370,7 +1402,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1495,45 +1526,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D52D-4C9B-9893-D42DFF8A221C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1614,45 +1650,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D52D-4C9B-9893-D42DFF8A221C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1734,45 +1775,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D52D-4C9B-9893-D42DFF8A221C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1854,45 +1900,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D52D-4C9B-9893-D42DFF8A221C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1974,45 +2025,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D52D-4C9B-9893-D42DFF8A221C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2094,45 +2150,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D52D-4C9B-9893-D42DFF8A221C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2202,10 +2263,11 @@
         <c:axId val="-361170160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="15.0"/>
+          <c:min val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2250,7 +2312,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2319,7 +2380,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2363,7 +2424,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2455,6 +2515,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-847C-455B-830B-926EA57CE48C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -2474,6 +2539,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-847C-455B-830B-926EA57CE48C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
@@ -2493,6 +2563,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-847C-455B-830B-926EA57CE48C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="25"/>
@@ -2512,6 +2587,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-847C-455B-830B-926EA57CE48C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -2520,81 +2600,86 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-847C-455B-830B-926EA57CE48C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2712,6 +2797,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-847C-455B-830B-926EA57CE48C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2749,87 +2839,92 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-847C-455B-830B-926EA57CE48C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2867,87 +2962,92 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-847C-455B-830B-926EA57CE48C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2985,87 +3085,92 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-847C-455B-830B-926EA57CE48C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3103,87 +3208,92 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-847C-455B-830B-926EA57CE48C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3219,10 +3329,11 @@
         <c:axId val="-363822624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="15.0"/>
+          <c:min val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3267,7 +3378,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3336,7 +3446,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3380,7 +3490,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3472,6 +3581,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-2BEE-4BE1-B152-1404F803B8E1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3491,6 +3605,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2BEE-4BE1-B152-1404F803B8E1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -3499,81 +3618,86 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2BEE-4BE1-B152-1404F803B8E1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3610,87 +3734,92 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28.66666666666667</c:v>
+                  <c:v>28.666666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2BEE-4BE1-B152-1404F803B8E1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3726,87 +3855,92 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18.02666666666667</c:v>
+                  <c:v>18.026666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2BEE-4BE1-B152-1404F803B8E1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3844,87 +3978,92 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23.34666666666667</c:v>
+                  <c:v>23.346666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2BEE-4BE1-B152-1404F803B8E1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3962,87 +4101,92 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>33.98666666666666</c:v>
+                  <c:v>33.986666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2BEE-4BE1-B152-1404F803B8E1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4080,87 +4224,92 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>39.30666666666667</c:v>
+                  <c:v>39.306666666666672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2BEE-4BE1-B152-1404F803B8E1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4199,6 +4348,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4243,7 +4393,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4312,7 +4461,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4351,7 +4500,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4476,45 +4624,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>571.0</c:v>
+                  <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>566.0</c:v>
+                  <c:v>566</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>556.0</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>553.0</c:v>
+                  <c:v>553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>561.0</c:v>
+                  <c:v>561</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>569.0</c:v>
+                  <c:v>569</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>573.0</c:v>
+                  <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>570.0</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>567.0</c:v>
+                  <c:v>567</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>562.0</c:v>
+                  <c:v>562</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>559.0</c:v>
+                  <c:v>559</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>556.0</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B05-4AA5-B600-59A3BEF391C7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4601,6 +4754,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4681,7 +4835,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4725,7 +4879,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4824,7 +4977,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4938,89 +5090,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4CDF-4D9C-84CA-295255AB478D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -5069,7 +5226,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5176,7 +5332,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5206,6 +5361,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5250,7 +5406,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5318,7 +5473,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5362,7 +5517,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5463,21 +5617,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1041.0</c:v>
+                  <c:v>1041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1020.0</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>976.0</c:v>
+                  <c:v>976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1148.0</c:v>
+                  <c:v>1148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-664B-4E0F-93D8-D89544A70E77}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5544,21 +5703,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>939.0</c:v>
+                  <c:v>939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>834.0</c:v>
+                  <c:v>834</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>688.0</c:v>
+                  <c:v>688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>806.0</c:v>
+                  <c:v>806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-664B-4E0F-93D8-D89544A70E77}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5625,21 +5789,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1330.0</c:v>
+                  <c:v>1330</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1003.0</c:v>
+                  <c:v>1003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1197.0</c:v>
+                  <c:v>1197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1337.0</c:v>
+                  <c:v>1337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-664B-4E0F-93D8-D89544A70E77}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5706,21 +5875,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>749.0</c:v>
+                  <c:v>749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>762.0</c:v>
+                  <c:v>762</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>807.0</c:v>
+                  <c:v>807</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>781.0</c:v>
+                  <c:v>781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-664B-4E0F-93D8-D89544A70E77}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -5787,21 +5961,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>420.0</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>454.0</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>447.0</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>359.0</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-664B-4E0F-93D8-D89544A70E77}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -5868,21 +6047,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>588.0</c:v>
+                  <c:v>588</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>699.0</c:v>
+                  <c:v>699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>743.0</c:v>
+                  <c:v>743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>702.0</c:v>
+                  <c:v>702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-664B-4E0F-93D8-D89544A70E77}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5952,7 +6136,7 @@
         <c:axId val="-225163312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="200.0"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6001,7 +6185,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6069,7 +6252,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6116,7 +6299,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6241,45 +6423,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>571.0</c:v>
+                  <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>566.0</c:v>
+                  <c:v>566</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>556.0</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>553.0</c:v>
+                  <c:v>553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>561.0</c:v>
+                  <c:v>561</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>569.0</c:v>
+                  <c:v>569</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>573.0</c:v>
+                  <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>570.0</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>567.0</c:v>
+                  <c:v>567</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>562.0</c:v>
+                  <c:v>562</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>559.0</c:v>
+                  <c:v>559</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>556.0</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DE5-4DAE-B24E-648B44989992}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6360,45 +6547,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>563.5833333333333</c:v>
+                  <c:v>563.58333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>563.5833333333333</c:v>
+                  <c:v>563.58333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>563.5833333333333</c:v>
+                  <c:v>563.58333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>563.5833333333333</c:v>
+                  <c:v>563.58333333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>563.5833333333333</c:v>
+                  <c:v>563.58333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>563.5833333333333</c:v>
+                  <c:v>563.58333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>563.5833333333333</c:v>
+                  <c:v>563.58333333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>563.5833333333333</c:v>
+                  <c:v>563.58333333333337</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>563.5833333333333</c:v>
+                  <c:v>563.58333333333337</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>563.5833333333333</c:v>
+                  <c:v>563.58333333333337</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>563.5833333333333</c:v>
+                  <c:v>563.58333333333337</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>563.5833333333333</c:v>
+                  <c:v>563.58333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DE5-4DAE-B24E-648B44989992}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6480,45 +6672,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>550.2833333333334</c:v>
+                  <c:v>550.28333333333342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>550.2833333333334</c:v>
+                  <c:v>550.28333333333342</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>550.2833333333334</c:v>
+                  <c:v>550.28333333333342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>550.2833333333334</c:v>
+                  <c:v>550.28333333333342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>550.2833333333334</c:v>
+                  <c:v>550.28333333333342</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>550.2833333333334</c:v>
+                  <c:v>550.28333333333342</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>550.2833333333334</c:v>
+                  <c:v>550.28333333333342</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>550.2833333333334</c:v>
+                  <c:v>550.28333333333342</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>550.2833333333334</c:v>
+                  <c:v>550.28333333333342</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>550.2833333333334</c:v>
+                  <c:v>550.28333333333342</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>550.2833333333334</c:v>
+                  <c:v>550.28333333333342</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>550.2833333333334</c:v>
+                  <c:v>550.28333333333342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4DE5-4DAE-B24E-648B44989992}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -6600,45 +6797,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>556.9333333333333</c:v>
+                  <c:v>556.93333333333339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>556.9333333333333</c:v>
+                  <c:v>556.93333333333339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>556.9333333333333</c:v>
+                  <c:v>556.93333333333339</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>556.9333333333333</c:v>
+                  <c:v>556.93333333333339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>556.9333333333333</c:v>
+                  <c:v>556.93333333333339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>556.9333333333333</c:v>
+                  <c:v>556.93333333333339</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>556.9333333333333</c:v>
+                  <c:v>556.93333333333339</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>556.9333333333333</c:v>
+                  <c:v>556.93333333333339</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>556.9333333333333</c:v>
+                  <c:v>556.93333333333339</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>556.9333333333333</c:v>
+                  <c:v>556.93333333333339</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>556.9333333333333</c:v>
+                  <c:v>556.93333333333339</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>556.9333333333333</c:v>
+                  <c:v>556.93333333333339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4DE5-4DAE-B24E-648B44989992}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -6720,45 +6922,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>570.2333333333333</c:v>
+                  <c:v>570.23333333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>570.2333333333333</c:v>
+                  <c:v>570.23333333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>570.2333333333333</c:v>
+                  <c:v>570.23333333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>570.2333333333333</c:v>
+                  <c:v>570.23333333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>570.2333333333333</c:v>
+                  <c:v>570.23333333333335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>570.2333333333333</c:v>
+                  <c:v>570.23333333333335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>570.2333333333333</c:v>
+                  <c:v>570.23333333333335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>570.2333333333333</c:v>
+                  <c:v>570.23333333333335</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>570.2333333333333</c:v>
+                  <c:v>570.23333333333335</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>570.2333333333333</c:v>
+                  <c:v>570.23333333333335</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>570.2333333333333</c:v>
+                  <c:v>570.23333333333335</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>570.2333333333333</c:v>
+                  <c:v>570.23333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4DE5-4DAE-B24E-648B44989992}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -6840,45 +7047,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>576.8833333333333</c:v>
+                  <c:v>576.88333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>576.8833333333333</c:v>
+                  <c:v>576.88333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>576.8833333333333</c:v>
+                  <c:v>576.88333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>576.8833333333333</c:v>
+                  <c:v>576.88333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>576.8833333333333</c:v>
+                  <c:v>576.88333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>576.8833333333333</c:v>
+                  <c:v>576.88333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>576.8833333333333</c:v>
+                  <c:v>576.88333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>576.8833333333333</c:v>
+                  <c:v>576.88333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>576.8833333333333</c:v>
+                  <c:v>576.88333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>576.8833333333333</c:v>
+                  <c:v>576.88333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>576.8833333333333</c:v>
+                  <c:v>576.88333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>576.8833333333333</c:v>
+                  <c:v>576.88333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4DE5-4DAE-B24E-648B44989992}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6948,10 +7160,11 @@
         <c:axId val="-313949280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="540.0"/>
+          <c:min val="540"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6996,7 +7209,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7065,7 +7277,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7109,7 +7321,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7201,6 +7412,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-0A55-4468-B65F-64D5F48E5D03}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -7220,6 +7436,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0A55-4468-B65F-64D5F48E5D03}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -7239,6 +7460,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-0A55-4468-B65F-64D5F48E5D03}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -7258,6 +7484,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0A55-4468-B65F-64D5F48E5D03}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -7277,6 +7508,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-0A55-4468-B65F-64D5F48E5D03}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -7296,6 +7532,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0A55-4468-B65F-64D5F48E5D03}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -7315,6 +7556,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-0A55-4468-B65F-64D5F48E5D03}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -7334,6 +7580,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0A55-4468-B65F-64D5F48E5D03}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:numRef>
@@ -7342,46 +7593,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1980.0</c:v>
+                  <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981.0</c:v>
+                  <c:v>1981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982.0</c:v>
+                  <c:v>1982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983.0</c:v>
+                  <c:v>1983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984.0</c:v>
+                  <c:v>1984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985.0</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986.0</c:v>
+                  <c:v>1986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987.0</c:v>
+                  <c:v>1987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1988.0</c:v>
+                  <c:v>1988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1989.0</c:v>
+                  <c:v>1989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1990.0</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991.0</c:v>
+                  <c:v>1991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1992.0</c:v>
+                  <c:v>1992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1993.0</c:v>
+                  <c:v>1993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7402,25 +7653,25 @@
                   <c:v>20.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.6</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>18.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.6</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.1</c:v>
+                  <c:v>18.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.9</c:v>
+                  <c:v>18.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>19.2</c:v>
@@ -7432,12 +7683,17 @@
                   <c:v>17.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0A55-4468-B65F-64D5F48E5D03}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7474,46 +7730,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1980.0</c:v>
+                  <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981.0</c:v>
+                  <c:v>1981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982.0</c:v>
+                  <c:v>1982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983.0</c:v>
+                  <c:v>1983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984.0</c:v>
+                  <c:v>1984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985.0</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986.0</c:v>
+                  <c:v>1986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987.0</c:v>
+                  <c:v>1987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1988.0</c:v>
+                  <c:v>1988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1989.0</c:v>
+                  <c:v>1989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1990.0</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991.0</c:v>
+                  <c:v>1991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1992.0</c:v>
+                  <c:v>1992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1993.0</c:v>
+                  <c:v>1993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7525,51 +7781,56 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>19.27142857142857</c:v>
+                  <c:v>19.271428571428569</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.27142857142857</c:v>
+                  <c:v>19.271428571428569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.27142857142857</c:v>
+                  <c:v>19.271428571428569</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.27142857142857</c:v>
+                  <c:v>19.271428571428569</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.27142857142857</c:v>
+                  <c:v>19.271428571428569</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.27142857142857</c:v>
+                  <c:v>19.271428571428569</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.27142857142857</c:v>
+                  <c:v>19.271428571428569</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.27142857142857</c:v>
+                  <c:v>19.271428571428569</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.27142857142857</c:v>
+                  <c:v>19.271428571428569</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.27142857142857</c:v>
+                  <c:v>19.271428571428569</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.27142857142857</c:v>
+                  <c:v>19.271428571428569</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.27142857142857</c:v>
+                  <c:v>19.271428571428569</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.27142857142857</c:v>
+                  <c:v>19.271428571428569</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.27142857142857</c:v>
+                  <c:v>19.271428571428569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-0A55-4468-B65F-64D5F48E5D03}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7607,46 +7868,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1980.0</c:v>
+                  <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981.0</c:v>
+                  <c:v>1981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982.0</c:v>
+                  <c:v>1982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983.0</c:v>
+                  <c:v>1983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984.0</c:v>
+                  <c:v>1984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985.0</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986.0</c:v>
+                  <c:v>1986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987.0</c:v>
+                  <c:v>1987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1988.0</c:v>
+                  <c:v>1988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1989.0</c:v>
+                  <c:v>1989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1990.0</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991.0</c:v>
+                  <c:v>1991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1992.0</c:v>
+                  <c:v>1992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1993.0</c:v>
+                  <c:v>1993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7703,6 +7964,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0A55-4468-B65F-64D5F48E5D03}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -7740,46 +8006,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1980.0</c:v>
+                  <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981.0</c:v>
+                  <c:v>1981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982.0</c:v>
+                  <c:v>1982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983.0</c:v>
+                  <c:v>1983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984.0</c:v>
+                  <c:v>1984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985.0</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986.0</c:v>
+                  <c:v>1986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987.0</c:v>
+                  <c:v>1987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1988.0</c:v>
+                  <c:v>1988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1989.0</c:v>
+                  <c:v>1989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1990.0</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991.0</c:v>
+                  <c:v>1991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1992.0</c:v>
+                  <c:v>1992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1993.0</c:v>
+                  <c:v>1993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7791,51 +8057,56 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>18.13581318681318</c:v>
+                  <c:v>18.135813186813184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.13581318681318</c:v>
+                  <c:v>18.135813186813184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.13581318681318</c:v>
+                  <c:v>18.135813186813184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.13581318681318</c:v>
+                  <c:v>18.135813186813184</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.13581318681318</c:v>
+                  <c:v>18.135813186813184</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.13581318681318</c:v>
+                  <c:v>18.135813186813184</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.13581318681318</c:v>
+                  <c:v>18.135813186813184</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.13581318681318</c:v>
+                  <c:v>18.135813186813184</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.13581318681318</c:v>
+                  <c:v>18.135813186813184</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.13581318681318</c:v>
+                  <c:v>18.135813186813184</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.13581318681318</c:v>
+                  <c:v>18.135813186813184</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.13581318681318</c:v>
+                  <c:v>18.135813186813184</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.13581318681318</c:v>
+                  <c:v>18.135813186813184</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.13581318681318</c:v>
+                  <c:v>18.135813186813184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0A55-4468-B65F-64D5F48E5D03}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -7873,46 +8144,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1980.0</c:v>
+                  <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981.0</c:v>
+                  <c:v>1981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982.0</c:v>
+                  <c:v>1982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983.0</c:v>
+                  <c:v>1983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984.0</c:v>
+                  <c:v>1984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985.0</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986.0</c:v>
+                  <c:v>1986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987.0</c:v>
+                  <c:v>1987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1988.0</c:v>
+                  <c:v>1988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1989.0</c:v>
+                  <c:v>1989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1990.0</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991.0</c:v>
+                  <c:v>1991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1992.0</c:v>
+                  <c:v>1992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1993.0</c:v>
+                  <c:v>1993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7924,51 +8195,56 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>20.40704395604395</c:v>
+                  <c:v>20.407043956043953</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.40704395604395</c:v>
+                  <c:v>20.407043956043953</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.40704395604395</c:v>
+                  <c:v>20.407043956043953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.40704395604395</c:v>
+                  <c:v>20.407043956043953</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.40704395604395</c:v>
+                  <c:v>20.407043956043953</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.40704395604395</c:v>
+                  <c:v>20.407043956043953</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.40704395604395</c:v>
+                  <c:v>20.407043956043953</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.40704395604395</c:v>
+                  <c:v>20.407043956043953</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.40704395604395</c:v>
+                  <c:v>20.407043956043953</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.40704395604395</c:v>
+                  <c:v>20.407043956043953</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.40704395604395</c:v>
+                  <c:v>20.407043956043953</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.40704395604395</c:v>
+                  <c:v>20.407043956043953</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.40704395604395</c:v>
+                  <c:v>20.407043956043953</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.40704395604395</c:v>
+                  <c:v>20.407043956043953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-0A55-4468-B65F-64D5F48E5D03}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -8006,46 +8282,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1980.0</c:v>
+                  <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981.0</c:v>
+                  <c:v>1981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982.0</c:v>
+                  <c:v>1982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983.0</c:v>
+                  <c:v>1983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984.0</c:v>
+                  <c:v>1984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985.0</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986.0</c:v>
+                  <c:v>1986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987.0</c:v>
+                  <c:v>1987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1988.0</c:v>
+                  <c:v>1988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1989.0</c:v>
+                  <c:v>1989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1990.0</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991.0</c:v>
+                  <c:v>1991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1992.0</c:v>
+                  <c:v>1992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1993.0</c:v>
+                  <c:v>1993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8057,51 +8333,56 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>21.54265934065934</c:v>
+                  <c:v>21.542659340659338</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.54265934065934</c:v>
+                  <c:v>21.542659340659338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.54265934065934</c:v>
+                  <c:v>21.542659340659338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.54265934065934</c:v>
+                  <c:v>21.542659340659338</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.54265934065934</c:v>
+                  <c:v>21.542659340659338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.54265934065934</c:v>
+                  <c:v>21.542659340659338</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.54265934065934</c:v>
+                  <c:v>21.542659340659338</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.54265934065934</c:v>
+                  <c:v>21.542659340659338</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.54265934065934</c:v>
+                  <c:v>21.542659340659338</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.54265934065934</c:v>
+                  <c:v>21.542659340659338</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.54265934065934</c:v>
+                  <c:v>21.542659340659338</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.54265934065934</c:v>
+                  <c:v>21.542659340659338</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.54265934065934</c:v>
+                  <c:v>21.542659340659338</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.54265934065934</c:v>
+                  <c:v>21.542659340659338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-0A55-4468-B65F-64D5F48E5D03}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8171,7 +8452,7 @@
         <c:axId val="-313892736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="16.0"/>
+          <c:min val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8220,7 +8501,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8289,7 +8569,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8333,7 +8613,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8425,6 +8704,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-C452-42E3-BF5D-52E7029CF615}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -8504,7 +8788,7 @@
                   <c:v>53.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>59.4</c:v>
@@ -8516,6 +8800,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C452-42E3-BF5D-52E7029CF615}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8635,6 +8924,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C452-42E3-BF5D-52E7029CF615}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8716,45 +9010,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>51.68551515151514</c:v>
+                  <c:v>51.685515151515148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.68551515151514</c:v>
+                  <c:v>51.685515151515148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.68551515151514</c:v>
+                  <c:v>51.685515151515148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.68551515151514</c:v>
+                  <c:v>51.685515151515148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.68551515151514</c:v>
+                  <c:v>51.685515151515148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.68551515151514</c:v>
+                  <c:v>51.685515151515148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.68551515151514</c:v>
+                  <c:v>51.685515151515148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.68551515151514</c:v>
+                  <c:v>51.685515151515148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.68551515151514</c:v>
+                  <c:v>51.685515151515148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.68551515151514</c:v>
+                  <c:v>51.685515151515148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51.68551515151514</c:v>
+                  <c:v>51.685515151515148</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51.68551515151514</c:v>
+                  <c:v>51.685515151515148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C452-42E3-BF5D-52E7029CF615}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -8836,45 +9135,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>53.93442424242424</c:v>
+                  <c:v>53.934424242424242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.93442424242424</c:v>
+                  <c:v>53.934424242424242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.93442424242424</c:v>
+                  <c:v>53.934424242424242</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.93442424242424</c:v>
+                  <c:v>53.934424242424242</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.93442424242424</c:v>
+                  <c:v>53.934424242424242</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.93442424242424</c:v>
+                  <c:v>53.934424242424242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.93442424242424</c:v>
+                  <c:v>53.934424242424242</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.93442424242424</c:v>
+                  <c:v>53.934424242424242</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.93442424242424</c:v>
+                  <c:v>53.934424242424242</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.93442424242424</c:v>
+                  <c:v>53.934424242424242</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53.93442424242424</c:v>
+                  <c:v>53.934424242424242</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53.93442424242424</c:v>
+                  <c:v>53.934424242424242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C452-42E3-BF5D-52E7029CF615}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -8956,45 +9260,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>58.43224242424242</c:v>
+                  <c:v>58.432242424242418</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.43224242424242</c:v>
+                  <c:v>58.432242424242418</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.43224242424242</c:v>
+                  <c:v>58.432242424242418</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.43224242424242</c:v>
+                  <c:v>58.432242424242418</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.43224242424242</c:v>
+                  <c:v>58.432242424242418</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.43224242424242</c:v>
+                  <c:v>58.432242424242418</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.43224242424242</c:v>
+                  <c:v>58.432242424242418</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.43224242424242</c:v>
+                  <c:v>58.432242424242418</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.43224242424242</c:v>
+                  <c:v>58.432242424242418</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.43224242424242</c:v>
+                  <c:v>58.432242424242418</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58.43224242424242</c:v>
+                  <c:v>58.432242424242418</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58.43224242424242</c:v>
+                  <c:v>58.432242424242418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C452-42E3-BF5D-52E7029CF615}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -9076,45 +9385,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>60.68115151515151</c:v>
+                  <c:v>60.681151515151512</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.68115151515151</c:v>
+                  <c:v>60.681151515151512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.68115151515151</c:v>
+                  <c:v>60.681151515151512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.68115151515151</c:v>
+                  <c:v>60.681151515151512</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.68115151515151</c:v>
+                  <c:v>60.681151515151512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.68115151515151</c:v>
+                  <c:v>60.681151515151512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.68115151515151</c:v>
+                  <c:v>60.681151515151512</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.68115151515151</c:v>
+                  <c:v>60.681151515151512</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.68115151515151</c:v>
+                  <c:v>60.681151515151512</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.68115151515151</c:v>
+                  <c:v>60.681151515151512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.68115151515151</c:v>
+                  <c:v>60.681151515151512</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60.68115151515151</c:v>
+                  <c:v>60.681151515151512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C452-42E3-BF5D-52E7029CF615}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9184,10 +9498,11 @@
         <c:axId val="-256026400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="50.0"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9232,7 +9547,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9301,7 +9615,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9436,6 +9750,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-023C-4E33-B8A4-5A14539FE0AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -9455,6 +9774,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-023C-4E33-B8A4-5A14539FE0AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -9474,6 +9798,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-023C-4E33-B8A4-5A14539FE0AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -9482,57 +9811,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-023C-4E33-B8A4-5A14539FE0AD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9620,6 +9954,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-023C-4E33-B8A4-5A14539FE0AD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -9657,57 +9996,62 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>16.69883333333333</c:v>
+                  <c:v>16.698833333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.69883333333333</c:v>
+                  <c:v>16.698833333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.69883333333333</c:v>
+                  <c:v>16.698833333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.69883333333333</c:v>
+                  <c:v>16.698833333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.69883333333333</c:v>
+                  <c:v>16.698833333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.69883333333333</c:v>
+                  <c:v>16.698833333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.69883333333333</c:v>
+                  <c:v>16.698833333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.69883333333333</c:v>
+                  <c:v>16.698833333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.69883333333333</c:v>
+                  <c:v>16.698833333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.69883333333333</c:v>
+                  <c:v>16.698833333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.69883333333333</c:v>
+                  <c:v>16.698833333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.69883333333333</c:v>
+                  <c:v>16.698833333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.69883333333333</c:v>
+                  <c:v>16.698833333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.69883333333333</c:v>
+                  <c:v>16.698833333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.69883333333333</c:v>
+                  <c:v>16.698833333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.69883333333333</c:v>
+                  <c:v>16.698833333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-023C-4E33-B8A4-5A14539FE0AD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -9745,57 +10089,62 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>20.06816666666667</c:v>
+                  <c:v>20.068166666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.06816666666667</c:v>
+                  <c:v>20.068166666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.06816666666667</c:v>
+                  <c:v>20.068166666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06816666666667</c:v>
+                  <c:v>20.068166666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.06816666666667</c:v>
+                  <c:v>20.068166666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.06816666666667</c:v>
+                  <c:v>20.068166666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.06816666666667</c:v>
+                  <c:v>20.068166666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.06816666666667</c:v>
+                  <c:v>20.068166666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.06816666666667</c:v>
+                  <c:v>20.068166666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.06816666666667</c:v>
+                  <c:v>20.068166666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.06816666666667</c:v>
+                  <c:v>20.068166666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.06816666666667</c:v>
+                  <c:v>20.068166666666666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.06816666666667</c:v>
+                  <c:v>20.068166666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.06816666666667</c:v>
+                  <c:v>20.068166666666666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.06816666666667</c:v>
+                  <c:v>20.068166666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.06816666666667</c:v>
+                  <c:v>20.068166666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-023C-4E33-B8A4-5A14539FE0AD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -9833,57 +10182,62 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>26.80683333333333</c:v>
+                  <c:v>26.806833333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.80683333333333</c:v>
+                  <c:v>26.806833333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.80683333333333</c:v>
+                  <c:v>26.806833333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.80683333333333</c:v>
+                  <c:v>26.806833333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.80683333333333</c:v>
+                  <c:v>26.806833333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.80683333333333</c:v>
+                  <c:v>26.806833333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.80683333333333</c:v>
+                  <c:v>26.806833333333334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.80683333333333</c:v>
+                  <c:v>26.806833333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.80683333333333</c:v>
+                  <c:v>26.806833333333334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.80683333333333</c:v>
+                  <c:v>26.806833333333334</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.80683333333333</c:v>
+                  <c:v>26.806833333333334</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.80683333333333</c:v>
+                  <c:v>26.806833333333334</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.80683333333333</c:v>
+                  <c:v>26.806833333333334</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.80683333333333</c:v>
+                  <c:v>26.806833333333334</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.80683333333333</c:v>
+                  <c:v>26.806833333333334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.80683333333333</c:v>
+                  <c:v>26.806833333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-023C-4E33-B8A4-5A14539FE0AD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -9921,57 +10275,62 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>30.17616666666667</c:v>
+                  <c:v>30.176166666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.17616666666667</c:v>
+                  <c:v>30.176166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.17616666666667</c:v>
+                  <c:v>30.176166666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.17616666666667</c:v>
+                  <c:v>30.176166666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.17616666666667</c:v>
+                  <c:v>30.176166666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.17616666666667</c:v>
+                  <c:v>30.176166666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.17616666666667</c:v>
+                  <c:v>30.176166666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.17616666666667</c:v>
+                  <c:v>30.176166666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.17616666666667</c:v>
+                  <c:v>30.176166666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.17616666666667</c:v>
+                  <c:v>30.176166666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.17616666666667</c:v>
+                  <c:v>30.176166666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.17616666666667</c:v>
+                  <c:v>30.176166666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.17616666666667</c:v>
+                  <c:v>30.176166666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.17616666666667</c:v>
+                  <c:v>30.176166666666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.17616666666667</c:v>
+                  <c:v>30.176166666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.17616666666667</c:v>
+                  <c:v>30.176166666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-023C-4E33-B8A4-5A14539FE0AD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10040,10 +10399,11 @@
         <c:axId val="-255980624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="15.0"/>
+          <c:min val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10156,7 +10516,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10200,7 +10560,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10325,45 +10684,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED7F-4998-9338-282C65F67C15}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -10483,6 +10847,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ED7F-4998-9338-282C65F67C15}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -10564,45 +10933,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.56090909090909</c:v>
+                  <c:v>25.560909090909092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ED7F-4998-9338-282C65F67C15}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -10684,45 +11058,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.15545454545455</c:v>
+                  <c:v>30.155454545454546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ED7F-4998-9338-282C65F67C15}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -10804,45 +11183,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.34454545454545</c:v>
+                  <c:v>39.344545454545454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-ED7F-4998-9338-282C65F67C15}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -10924,45 +11308,50 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43.93909090909091</c:v>
+                  <c:v>43.939090909090908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-ED7F-4998-9338-282C65F67C15}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11032,11 +11421,12 @@
         <c:axId val="-159351616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45.0"/>
-          <c:min val="15.0"/>
+          <c:max val="45"/>
+          <c:min val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11081,7 +11471,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17815,7 +18204,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17845,7 +18240,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17880,7 +18281,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17910,7 +18317,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17940,7 +18353,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17970,7 +18389,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18521,7 +18946,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18556,7 +18987,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18591,7 +19028,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18872,7 +19315,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -18904,7 +19353,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18934,7 +19389,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19828,17 +20289,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="U53" sqref="U53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -19846,7 +20307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -19854,7 +20315,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -19862,7 +20323,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -19870,7 +20331,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -19878,7 +20339,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -19886,7 +20347,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -19894,7 +20355,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -19902,7 +20363,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -19910,7 +20371,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -19918,7 +20379,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -19926,7 +20387,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -19934,7 +20395,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -19942,7 +20403,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
@@ -19971,7 +20432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -20003,7 +20464,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -20039,7 +20500,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -20075,7 +20536,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -20111,7 +20572,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -20147,7 +20608,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -20183,7 +20644,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -20219,7 +20680,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -20255,7 +20716,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -20291,7 +20752,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -20327,7 +20788,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -20363,7 +20824,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -20409,17 +20870,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="F7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -20430,7 +20891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20441,7 +20902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20458,7 +20919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -20475,7 +20936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -20492,7 +20953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -20509,7 +20970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>2</v>
       </c>
@@ -20526,7 +20987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>2</v>
       </c>
@@ -20543,7 +21004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>2</v>
       </c>
@@ -20560,7 +21021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>2</v>
       </c>
@@ -20577,7 +21038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -20594,7 +21055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>2</v>
       </c>
@@ -20611,7 +21072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>3</v>
       </c>
@@ -20628,7 +21089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>3</v>
       </c>
@@ -20645,7 +21106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>3</v>
       </c>
@@ -20662,7 +21123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>3</v>
       </c>
@@ -20679,7 +21140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>4</v>
       </c>
@@ -20696,7 +21157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>4</v>
       </c>
@@ -20713,7 +21174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>4</v>
       </c>
@@ -20730,7 +21191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>4</v>
       </c>
@@ -20747,7 +21208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>5</v>
       </c>
@@ -20764,7 +21225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>5</v>
       </c>
@@ -20781,7 +21242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>5</v>
       </c>
@@ -20798,7 +21259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>6</v>
       </c>
@@ -20815,7 +21276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>6</v>
       </c>
@@ -20832,7 +21293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>6</v>
       </c>
@@ -20849,7 +21310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>6</v>
       </c>
@@ -20866,7 +21327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>6</v>
       </c>
@@ -20880,7 +21341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>6</v>
       </c>
@@ -20894,7 +21355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>7</v>
       </c>
@@ -20908,7 +21369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>7</v>
       </c>
@@ -20916,7 +21377,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>7</v>
       </c>
@@ -20924,7 +21385,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>7</v>
       </c>
@@ -20932,7 +21393,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>7</v>
       </c>
@@ -20940,7 +21401,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>7</v>
       </c>
@@ -20948,7 +21409,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>7</v>
       </c>
@@ -20956,7 +21417,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>7</v>
       </c>
@@ -20964,7 +21425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>8</v>
       </c>
@@ -20972,7 +21433,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>8</v>
       </c>
@@ -20980,7 +21441,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>8</v>
       </c>
@@ -20988,7 +21449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>8</v>
       </c>
@@ -20996,7 +21457,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>8</v>
       </c>
@@ -21004,7 +21465,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>9</v>
       </c>
@@ -21012,7 +21473,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>9</v>
       </c>
@@ -21020,7 +21481,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>9</v>
       </c>
@@ -21028,7 +21489,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>9</v>
       </c>
@@ -21036,7 +21497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>9</v>
       </c>
@@ -21044,7 +21505,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>10</v>
       </c>
@@ -21052,7 +21513,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>10</v>
       </c>
@@ -21060,7 +21521,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>10</v>
       </c>
@@ -21068,7 +21529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>10</v>
       </c>
@@ -21076,7 +21537,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>10</v>
       </c>
@@ -21084,7 +21545,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>11</v>
       </c>
@@ -21092,7 +21553,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>11</v>
       </c>
@@ -21100,7 +21561,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>11</v>
       </c>
@@ -21108,7 +21569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>11</v>
       </c>
@@ -21116,7 +21577,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>12</v>
       </c>
@@ -21124,7 +21585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>12</v>
       </c>
@@ -21132,7 +21593,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>12</v>
       </c>
@@ -21140,7 +21601,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>13</v>
       </c>
@@ -21148,7 +21609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>13</v>
       </c>
@@ -21156,7 +21617,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>13</v>
       </c>
@@ -21164,7 +21625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>13</v>
       </c>
@@ -21172,7 +21633,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>13</v>
       </c>
@@ -21180,7 +21641,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>13</v>
       </c>
@@ -21188,7 +21649,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>13</v>
       </c>
@@ -21196,7 +21657,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>14</v>
       </c>
@@ -21204,7 +21665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>14</v>
       </c>
@@ -21212,7 +21673,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>14</v>
       </c>
@@ -21220,7 +21681,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>14</v>
       </c>
@@ -21228,7 +21689,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>14</v>
       </c>
@@ -21236,7 +21697,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>14</v>
       </c>
@@ -21244,7 +21705,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>14</v>
       </c>
@@ -21252,7 +21713,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>14</v>
       </c>
@@ -21260,7 +21721,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>14</v>
       </c>
@@ -21268,7 +21729,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>15</v>
       </c>
@@ -21276,7 +21737,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>15</v>
       </c>
@@ -21284,7 +21745,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>15</v>
       </c>
@@ -21292,7 +21753,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>16</v>
       </c>
@@ -21300,7 +21761,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>16</v>
       </c>
@@ -21308,7 +21769,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>16</v>
       </c>
@@ -21316,7 +21777,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>16</v>
       </c>
@@ -21324,7 +21785,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>17</v>
       </c>
@@ -21332,7 +21793,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>17</v>
       </c>
@@ -21340,7 +21801,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>17</v>
       </c>
@@ -21348,7 +21809,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>17</v>
       </c>
@@ -21356,7 +21817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>17</v>
       </c>
@@ -21364,7 +21825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>18</v>
       </c>
@@ -21372,7 +21833,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>18</v>
       </c>
@@ -21380,7 +21841,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>18</v>
       </c>
@@ -21388,7 +21849,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>18</v>
       </c>
@@ -21396,7 +21857,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>18</v>
       </c>
@@ -21404,7 +21865,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>19</v>
       </c>
@@ -21412,7 +21873,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>19</v>
       </c>
@@ -21420,7 +21881,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>19</v>
       </c>
@@ -21428,7 +21889,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>20</v>
       </c>
@@ -21436,7 +21897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>20</v>
       </c>
@@ -21444,7 +21905,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>20</v>
       </c>
@@ -21452,7 +21913,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>20</v>
       </c>
@@ -21460,7 +21921,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>20</v>
       </c>
@@ -21468,7 +21929,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>21</v>
       </c>
@@ -21476,7 +21937,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>21</v>
       </c>
@@ -21484,7 +21945,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>21</v>
       </c>
@@ -21492,7 +21953,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>22</v>
       </c>
@@ -21500,7 +21961,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>22</v>
       </c>
@@ -21508,7 +21969,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>22</v>
       </c>
@@ -21516,7 +21977,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>22</v>
       </c>
@@ -21524,7 +21985,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>22</v>
       </c>
@@ -21532,7 +21993,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>22</v>
       </c>
@@ -21558,9 +22019,9 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
@@ -21577,7 +22038,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -21594,7 +22055,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -21611,7 +22072,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -21628,7 +22089,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -21645,7 +22106,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -21662,7 +22123,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -21690,15 +22151,15 @@
   <dimension ref="A3:I15"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -21727,7 +22188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -21759,7 +22220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -21795,7 +22256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -21831,7 +22292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -21867,7 +22328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -21903,7 +22364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -21939,7 +22400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -21975,7 +22436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -22011,7 +22472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -22047,7 +22508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -22083,7 +22544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -22119,7 +22580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -22165,16 +22626,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -22197,7 +22658,7 @@
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -22218,7 +22679,7 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -22247,7 +22708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -22279,7 +22740,7 @@
         <v>1.6909090909090911</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -22315,7 +22776,7 @@
         <v>1.6909090909090911</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -22351,7 +22812,7 @@
         <v>1.6909090909090911</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -22387,7 +22848,7 @@
         <v>1.6909090909090911</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -22423,7 +22884,7 @@
         <v>1.6909090909090911</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -22459,7 +22920,7 @@
         <v>1.6909090909090911</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -22495,7 +22956,7 @@
         <v>1.6909090909090911</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -22531,7 +22992,7 @@
         <v>1.6909090909090911</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -22567,7 +23028,7 @@
         <v>1.6909090909090911</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -22603,7 +23064,7 @@
         <v>1.6909090909090911</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -22639,7 +23100,7 @@
         <v>1.6909090909090911</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -22675,67 +23136,67 @@
         <v>1.6909090909090911</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A31" s="9" t="s">
         <v>9</v>
       </c>
@@ -22758,7 +23219,7 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -22779,7 +23240,7 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
@@ -22808,7 +23269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>1980</v>
       </c>
@@ -22840,7 +23301,7 @@
         <v>0.8538461538461537</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>1981</v>
       </c>
@@ -22876,7 +23337,7 @@
         <v>0.8538461538461537</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>1982</v>
       </c>
@@ -22912,7 +23373,7 @@
         <v>0.8538461538461537</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>1983</v>
       </c>
@@ -22948,7 +23409,7 @@
         <v>0.8538461538461537</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>1984</v>
       </c>
@@ -22984,7 +23445,7 @@
         <v>0.8538461538461537</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>1985</v>
       </c>
@@ -23020,7 +23481,7 @@
         <v>0.8538461538461537</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>1986</v>
       </c>
@@ -23056,7 +23517,7 @@
         <v>0.8538461538461537</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>1987</v>
       </c>
@@ -23092,7 +23553,7 @@
         <v>0.8538461538461537</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>1988</v>
       </c>
@@ -23128,7 +23589,7 @@
         <v>0.8538461538461537</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>1989</v>
       </c>
@@ -23164,7 +23625,7 @@
         <v>0.8538461538461537</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>1990</v>
       </c>
@@ -23200,7 +23661,7 @@
         <v>0.8538461538461537</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>1991</v>
       </c>
@@ -23236,7 +23697,7 @@
         <v>0.8538461538461537</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>1992</v>
       </c>
@@ -23272,7 +23733,7 @@
         <v>0.8538461538461537</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>1993</v>
       </c>
@@ -23308,7 +23769,7 @@
         <v>0.8538461538461537</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A62" s="9" t="s">
         <v>24</v>
       </c>
@@ -23331,7 +23792,7 @@
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -23352,7 +23813,7 @@
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A65" s="3" t="s">
         <v>25</v>
       </c>
@@ -23381,7 +23842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>1</v>
       </c>
@@ -23413,7 +23874,7 @@
         <v>2.5333333333333332</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>2</v>
       </c>
@@ -23449,7 +23910,7 @@
         <v>2.5333333333333332</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>3</v>
       </c>
@@ -23485,7 +23946,7 @@
         <v>2.5333333333333332</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>4</v>
       </c>
@@ -23521,7 +23982,7 @@
         <v>2.5333333333333332</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>5</v>
       </c>
@@ -23557,7 +24018,7 @@
         <v>2.5333333333333332</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>6</v>
       </c>
@@ -23593,7 +24054,7 @@
         <v>2.5333333333333332</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>7</v>
       </c>
@@ -23629,7 +24090,7 @@
         <v>2.5333333333333332</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>8</v>
       </c>
@@ -23665,7 +24126,7 @@
         <v>2.5333333333333332</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>9</v>
       </c>
@@ -23701,7 +24162,7 @@
         <v>2.5333333333333332</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>10</v>
       </c>
@@ -23737,7 +24198,7 @@
         <v>2.5333333333333332</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>11</v>
       </c>
@@ -23773,7 +24234,7 @@
         <v>2.5333333333333332</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>12</v>
       </c>
@@ -23809,7 +24270,7 @@
         <v>2.5333333333333332</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>13</v>
       </c>
@@ -23845,7 +24306,7 @@
         <v>2.5333333333333332</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>14</v>
       </c>
@@ -23881,7 +24342,7 @@
         <v>2.5333333333333332</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>15</v>
       </c>
@@ -23917,7 +24378,7 @@
         <v>2.5333333333333332</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>16</v>
       </c>
@@ -23968,17 +24429,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S125"/>
   <sheetViews>
-    <sheetView topLeftCell="I29" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>45</v>
       </c>
@@ -24001,7 +24462,7 @@
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -24022,7 +24483,7 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -24051,7 +24512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -24083,7 +24544,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -24119,7 +24580,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -24155,7 +24616,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -24191,7 +24652,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -24227,7 +24688,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -24263,7 +24724,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -24299,7 +24760,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -24335,7 +24796,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -24371,7 +24832,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -24407,7 +24868,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -24443,7 +24904,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -24479,7 +24940,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A31" s="9" t="s">
         <v>46</v>
       </c>
@@ -24502,7 +24963,7 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -24523,7 +24984,7 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
@@ -24552,7 +25013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -24584,7 +25045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -24620,7 +25081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -24656,7 +25117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -24692,7 +25153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -24728,7 +25189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -24764,7 +25225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -24800,7 +25261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -24836,7 +25297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -24872,7 +25333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -24908,7 +25369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -24944,7 +25405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -24980,7 +25441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A61" s="9" t="s">
         <v>48</v>
       </c>
@@ -25003,7 +25464,7 @@
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -25024,7 +25485,7 @@
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B64" s="3" t="s">
         <v>47</v>
       </c>
@@ -25050,7 +25511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B65">
         <v>43</v>
       </c>
@@ -25079,7 +25540,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B66">
         <v>40</v>
       </c>
@@ -25108,7 +25569,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B67">
         <v>37</v>
       </c>
@@ -25137,7 +25598,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B68">
         <v>33</v>
       </c>
@@ -25166,7 +25627,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B69">
         <v>30</v>
       </c>
@@ -25195,7 +25656,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B70">
         <v>33</v>
       </c>
@@ -25224,7 +25685,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B71">
         <v>34</v>
       </c>
@@ -25253,7 +25714,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B72">
         <v>35</v>
       </c>
@@ -25282,7 +25743,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B73">
         <v>29</v>
       </c>
@@ -25311,7 +25772,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B74">
         <v>33</v>
       </c>
@@ -25340,7 +25801,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B75">
         <v>31</v>
       </c>
@@ -25369,7 +25830,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B76">
         <v>39</v>
       </c>
@@ -25398,7 +25859,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.5">
       <c r="C77" s="2">
         <f t="shared" si="14"/>
         <v>34.75</v>
@@ -25424,7 +25885,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.5">
       <c r="C78" s="2">
         <f t="shared" si="14"/>
         <v>34.75</v>
@@ -25450,7 +25911,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B79">
         <v>35</v>
       </c>
@@ -25479,7 +25940,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B80">
         <v>37</v>
       </c>
@@ -25508,7 +25969,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B81">
         <v>33</v>
       </c>
@@ -25537,7 +25998,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B82">
         <v>32</v>
       </c>
@@ -25566,7 +26027,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B83">
         <v>27</v>
       </c>
@@ -25595,7 +26056,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B84">
         <v>29</v>
       </c>
@@ -25624,7 +26085,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B85">
         <v>31</v>
       </c>
@@ -25653,7 +26114,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B86">
         <v>22</v>
       </c>
@@ -25682,7 +26143,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B87">
         <v>25</v>
       </c>
@@ -25711,7 +26172,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B88">
         <v>30</v>
       </c>
@@ -25740,7 +26201,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B89">
         <v>24</v>
       </c>
@@ -25769,7 +26230,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B90">
         <v>19</v>
       </c>
@@ -25798,7 +26259,7 @@
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A96" s="9" t="s">
         <v>49</v>
       </c>
@@ -25821,7 +26282,7 @@
       <c r="R96" s="9"/>
       <c r="S96" s="9"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -25842,7 +26303,7 @@
       <c r="R97" s="9"/>
       <c r="S97" s="9"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B99" s="3" t="s">
         <v>47</v>
       </c>
@@ -25868,7 +26329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B100">
         <v>43</v>
       </c>
@@ -25897,7 +26358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B101">
         <v>40</v>
       </c>
@@ -25926,7 +26387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B102">
         <v>37</v>
       </c>
@@ -25955,7 +26416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B103">
         <v>33</v>
       </c>
@@ -25984,7 +26445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B104">
         <v>30</v>
       </c>
@@ -26013,7 +26474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B105">
         <v>33</v>
       </c>
@@ -26042,7 +26503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B106">
         <v>34</v>
       </c>
@@ -26071,7 +26532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B107">
         <v>35</v>
       </c>
@@ -26100,7 +26561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B108">
         <v>29</v>
       </c>
@@ -26129,7 +26590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B109">
         <v>33</v>
       </c>
@@ -26158,7 +26619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B110">
         <v>31</v>
       </c>
@@ -26187,7 +26648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B111">
         <v>39</v>
       </c>
@@ -26216,7 +26677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.5">
       <c r="C112" s="2">
         <f t="shared" si="24"/>
         <v>28.666666666666668</v>
@@ -26242,7 +26703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.5">
       <c r="C113" s="2">
         <f t="shared" si="24"/>
         <v>28.666666666666668</v>
@@ -26268,7 +26729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B114">
         <v>35</v>
       </c>
@@ -26297,7 +26758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B115">
         <v>37</v>
       </c>
@@ -26330,7 +26791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B116">
         <v>33</v>
       </c>
@@ -26363,7 +26824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B117">
         <v>32</v>
       </c>
@@ -26396,7 +26857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B118">
         <v>27</v>
       </c>
@@ -26429,7 +26890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B119">
         <v>29</v>
       </c>
@@ -26462,7 +26923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B120">
         <v>31</v>
       </c>
@@ -26495,7 +26956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B121">
         <v>22</v>
       </c>
@@ -26528,7 +26989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B122">
         <v>25</v>
       </c>
@@ -26561,7 +27022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B123">
         <v>30</v>
       </c>
@@ -26594,7 +27055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B124">
         <v>24</v>
       </c>
@@ -26627,7 +27088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B125">
         <v>19</v>
       </c>
